--- a/blog_data.xlsx
+++ b/blog_data.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8 likes</t>
+          <t>10 likes</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4 likes</t>
+          <t>5 likes</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2 likes</t>
+          <t>3 likes</t>
         </is>
       </c>
     </row>
